--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-Agtr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-Agtr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,57 +534,57 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H2">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.94505821828886</v>
+        <v>2.002414333333333</v>
       </c>
       <c r="N2">
-        <v>1.94505821828886</v>
+        <v>6.007243</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8176262304899502</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.8176262304899502</v>
       </c>
       <c r="Q2">
-        <v>378.5948323237979</v>
+        <v>391.3426241741756</v>
       </c>
       <c r="R2">
-        <v>378.5948323237979</v>
+        <v>3522.083617567581</v>
       </c>
       <c r="S2">
-        <v>0.3112436994033337</v>
+        <v>0.2531159644647083</v>
       </c>
       <c r="T2">
-        <v>0.3112436994033337</v>
+        <v>0.2531159644647082</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>79.76733514587799</v>
+        <v>195.435389</v>
       </c>
       <c r="H3">
-        <v>79.76733514587799</v>
+        <v>586.306167</v>
       </c>
       <c r="I3">
-        <v>0.1275509140785377</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J3">
-        <v>0.1275509140785377</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.94505821828886</v>
+        <v>0.446644</v>
       </c>
       <c r="N3">
-        <v>1.94505821828886</v>
+        <v>1.339932</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1823737695100498</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1823737695100498</v>
       </c>
       <c r="Q3">
-        <v>155.1521107764918</v>
+        <v>87.290043884516</v>
       </c>
       <c r="R3">
-        <v>155.1521107764918</v>
+        <v>785.610394960644</v>
       </c>
       <c r="S3">
-        <v>0.1275509140785377</v>
+        <v>0.05645820894828552</v>
       </c>
       <c r="T3">
-        <v>0.1275509140785377</v>
+        <v>0.05645820894828551</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>162.218964272126</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H4">
-        <v>162.218964272126</v>
+        <v>239.481758</v>
       </c>
       <c r="I4">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J4">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.94505821828886</v>
+        <v>2.002414333333333</v>
       </c>
       <c r="N4">
-        <v>1.94505821828886</v>
+        <v>6.007243</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.8176262304899502</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.8176262304899502</v>
       </c>
       <c r="Q4">
-        <v>315.5253296198056</v>
+        <v>159.8472349303549</v>
       </c>
       <c r="R4">
-        <v>315.5253296198056</v>
+        <v>1438.625114373194</v>
       </c>
       <c r="S4">
-        <v>0.2593941133415505</v>
+        <v>0.1033873760155654</v>
       </c>
       <c r="T4">
-        <v>0.2593941133415505</v>
+        <v>0.1033873760155654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>158.632386490809</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H5">
-        <v>158.632386490809</v>
+        <v>239.481758</v>
       </c>
       <c r="I5">
-        <v>0.2536590430451174</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J5">
-        <v>0.2536590430451174</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.94505821828886</v>
+        <v>0.446644</v>
       </c>
       <c r="N5">
-        <v>1.94505821828886</v>
+        <v>1.339932</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.1823737695100498</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.1823737695100498</v>
       </c>
       <c r="Q5">
-        <v>308.5492270307228</v>
+        <v>35.65436344005067</v>
       </c>
       <c r="R5">
-        <v>308.5492270307228</v>
+        <v>320.889270960456</v>
       </c>
       <c r="S5">
-        <v>0.2536590430451174</v>
+        <v>0.0230608373124391</v>
       </c>
       <c r="T5">
-        <v>0.2536590430451174</v>
+        <v>0.02306083731243909</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,52 +782,362 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.1132697218668</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H6">
-        <v>30.1132697218668</v>
+        <v>487.534973</v>
       </c>
       <c r="I6">
-        <v>0.04815223013146062</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J6">
-        <v>0.04815223013146062</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.94505821828886</v>
+        <v>2.002414333333333</v>
       </c>
       <c r="N6">
-        <v>1.94505821828886</v>
+        <v>6.007243</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.8176262304899502</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8176262304899502</v>
       </c>
       <c r="Q6">
-        <v>58.57206275206612</v>
+        <v>325.4156726454932</v>
       </c>
       <c r="R6">
-        <v>58.57206275206612</v>
+        <v>2928.741053809439</v>
       </c>
       <c r="S6">
-        <v>0.04815223013146062</v>
+        <v>0.2104751610111761</v>
       </c>
       <c r="T6">
-        <v>0.04815223013146062</v>
+        <v>0.2104751610111761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>162.5116576666667</v>
+      </c>
+      <c r="H7">
+        <v>487.534973</v>
+      </c>
+      <c r="I7">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="J7">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.446644</v>
+      </c>
+      <c r="N7">
+        <v>1.339932</v>
+      </c>
+      <c r="O7">
+        <v>0.1823737695100498</v>
+      </c>
+      <c r="P7">
+        <v>0.1823737695100498</v>
+      </c>
+      <c r="Q7">
+        <v>72.58485682687066</v>
+      </c>
+      <c r="R7">
+        <v>653.263711441836</v>
+      </c>
+      <c r="S7">
+        <v>0.04694706098022458</v>
+      </c>
+      <c r="T7">
+        <v>0.04694706098022458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>159.7910413333334</v>
+      </c>
+      <c r="H8">
+        <v>479.3731240000001</v>
+      </c>
+      <c r="I8">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="J8">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.002414333333333</v>
+      </c>
+      <c r="N8">
+        <v>6.007243</v>
+      </c>
+      <c r="O8">
+        <v>0.8176262304899502</v>
+      </c>
+      <c r="P8">
+        <v>0.8176262304899502</v>
+      </c>
+      <c r="Q8">
+        <v>319.9678715041259</v>
+      </c>
+      <c r="R8">
+        <v>2879.710843537132</v>
+      </c>
+      <c r="S8">
+        <v>0.2069515851088093</v>
+      </c>
+      <c r="T8">
+        <v>0.2069515851088092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>159.7910413333334</v>
+      </c>
+      <c r="H9">
+        <v>479.3731240000001</v>
+      </c>
+      <c r="I9">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="J9">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.446644</v>
+      </c>
+      <c r="N9">
+        <v>1.339932</v>
+      </c>
+      <c r="O9">
+        <v>0.1823737695100498</v>
+      </c>
+      <c r="P9">
+        <v>0.1823737695100498</v>
+      </c>
+      <c r="Q9">
+        <v>71.36970986528536</v>
+      </c>
+      <c r="R9">
+        <v>642.3273887875681</v>
+      </c>
+      <c r="S9">
+        <v>0.04616111772705334</v>
+      </c>
+      <c r="T9">
+        <v>0.04616111772705333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H10">
+        <v>101.215736</v>
+      </c>
+      <c r="I10">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J10">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.002414333333333</v>
+      </c>
+      <c r="N10">
+        <v>6.007243</v>
+      </c>
+      <c r="O10">
+        <v>0.8176262304899502</v>
+      </c>
+      <c r="P10">
+        <v>0.8176262304899502</v>
+      </c>
+      <c r="Q10">
+        <v>67.55861350842754</v>
+      </c>
+      <c r="R10">
+        <v>608.0275215758479</v>
+      </c>
+      <c r="S10">
+        <v>0.04369614388969116</v>
+      </c>
+      <c r="T10">
+        <v>0.04369614388969115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H11">
+        <v>101.215736</v>
+      </c>
+      <c r="I11">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J11">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.446644</v>
+      </c>
+      <c r="N11">
+        <v>1.339932</v>
+      </c>
+      <c r="O11">
+        <v>0.1823737695100498</v>
+      </c>
+      <c r="P11">
+        <v>0.1823737695100498</v>
+      </c>
+      <c r="Q11">
+        <v>15.06913372999467</v>
+      </c>
+      <c r="R11">
+        <v>135.622203569952</v>
+      </c>
+      <c r="S11">
+        <v>0.009746544542047269</v>
+      </c>
+      <c r="T11">
+        <v>0.009746544542047268</v>
       </c>
     </row>
   </sheetData>
